--- a/biology/Botanique/Forêt_d'Harenna/Forêt_d'Harenna.xlsx
+++ b/biology/Botanique/Forêt_d'Harenna/Forêt_d'Harenna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Harenna</t>
+          <t>Forêt_d'Harenna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt d'Harenna est une forêt d'altitude située dans le massif du Balé, dans la région éthiopienne d'Oromia, au sud-est du pays. Elle couvre les pentes méridionales du massif, en grande partie sur le parc national du Mont Balé. 
-C'est l'une des rares forêts préservée du pays[1]. Elle couvre 4 000 km2. Elle est extrêmement dense, les rares clairières qu'on y trouve sont isolées et éloignées les unes des autres, ce qui fait qu'elle est très difficilement pénétrable et la faune qu'elle abrite n'est que très peu dérangée[2].
+C'est l'une des rares forêts préservée du pays. Elle couvre 4 000 km2. Elle est extrêmement dense, les rares clairières qu'on y trouve sont isolées et éloignées les unes des autres, ce qui fait qu'elle est très difficilement pénétrable et la faune qu'elle abrite n'est que très peu dérangée.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Harenna</t>
+          <t>Forêt_d'Harenna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,50 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt, et le massif du Balé plus largement, largement inhabités, sont méconnus sur le plan scientifique ; a contrario du reste de l'Éthiopie, très peu de choses sont écrites à leur sujet avant les années 1950[3]. 
-Flore et faune
-La partie supérieure de la forêt est une « forêt de nuages », baignant dans une brume humide quasi continuelle ; elle abrite une large ceinture de bambous, qui poussent sur les pentes raides. La partie aux altitudes inférieures est plus sèche[2].
-La forêt est riche en espèces endémiques de plantes, en mammifères, en amphibiens et en oiseaux[4]. L'espèce d'arbre endémique Maytenus harenensis (en) est classée « vulnérable » par l'UICN en raison de l'exploitation forestière[5]. On y trouve des plants de Coffea arabica à l'état sauvage[6].
-La forêt d'Harenna est l'un des refuges pour le  lycaon, une espèce en danger du fait de la pression anthropique[7]. Le plateau Sanetti abrite quant à lui le très rare loup d'Abyssinie[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt, et le massif du Balé plus largement, largement inhabités, sont méconnus sur le plan scientifique ; a contrario du reste de l'Éthiopie, très peu de choses sont écrites à leur sujet avant les années 1950. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_d'Harenna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_d%27Harenna</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie supérieure de la forêt est une « forêt de nuages », baignant dans une brume humide quasi continuelle ; elle abrite une large ceinture de bambous, qui poussent sur les pentes raides. La partie aux altitudes inférieures est plus sèche.
+La forêt est riche en espèces endémiques de plantes, en mammifères, en amphibiens et en oiseaux. L'espèce d'arbre endémique Maytenus harenensis (en) est classée « vulnérable » par l'UICN en raison de l'exploitation forestière. On y trouve des plants de Coffea arabica à l'état sauvage.
+La forêt d'Harenna est l'un des refuges pour le  lycaon, une espèce en danger du fait de la pression anthropique. Le plateau Sanetti abrite quant à lui le très rare loup d'Abyssinie.
 </t>
         </is>
       </c>
